--- a/data/financial_statements/sofp/EXC.xlsx
+++ b/data/financial_statements/sofp/EXC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -146,9 +263,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -201,12 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -511,129 +622,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1190000000</v>
@@ -645,10 +756,10 @@
         <v>2906000000</v>
       </c>
       <c r="E2">
-        <v>1575000000</v>
+        <v>993000000</v>
       </c>
       <c r="F2">
-        <v>3628000000</v>
+        <v>3430000000</v>
       </c>
       <c r="G2">
         <v>1957000000</v>
@@ -754,8 +865,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>3430000000</v>
@@ -767,7 +878,7 @@
         <v>3043000000</v>
       </c>
       <c r="E3">
-        <v>5126000000</v>
+        <v>2865000000</v>
       </c>
       <c r="F3">
         <v>4660000000</v>
@@ -876,8 +987,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>757000000</v>
@@ -889,7 +1000,7 @@
         <v>512000000</v>
       </c>
       <c r="E4">
-        <v>1869000000</v>
+        <v>581000000</v>
       </c>
       <c r="F4">
         <v>1818000000</v>
@@ -998,8 +1109,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1678000000</v>
@@ -1011,10 +1122,10 @@
         <v>1684000000</v>
       </c>
       <c r="E5">
-        <v>5387000000</v>
+        <v>1683000000</v>
       </c>
       <c r="F5">
-        <v>4735000000</v>
+        <v>4969000000</v>
       </c>
       <c r="G5">
         <v>4197000000</v>
@@ -1120,8 +1231,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>7055000000</v>
@@ -1136,7 +1247,7 @@
         <v>13957000000</v>
       </c>
       <c r="F6">
-        <v>14841000000</v>
+        <v>14877000000</v>
       </c>
       <c r="G6">
         <v>12348000000</v>
@@ -1242,8 +1353,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>67572000000</v>
@@ -1255,7 +1366,7 @@
         <v>65465000000</v>
       </c>
       <c r="E7">
-        <v>84219000000</v>
+        <v>64558000000</v>
       </c>
       <c r="F7">
         <v>82852000000</v>
@@ -1364,23 +1475,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>313000000</v>
+        <v>230000000</v>
       </c>
       <c r="C8">
-        <v>294000000</v>
+        <v>235000000</v>
       </c>
       <c r="D8">
         <v>244000000</v>
       </c>
       <c r="E8">
-        <v>17330000000</v>
+        <v>250000000</v>
       </c>
       <c r="F8">
-        <v>16504000000</v>
+        <v>435000000</v>
       </c>
       <c r="G8">
         <v>421000000</v>
@@ -1486,8 +1597,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>6630000000</v>
@@ -1499,10 +1610,10 @@
         <v>6630000000</v>
       </c>
       <c r="E9">
+        <v>6630000000</v>
+      </c>
+      <c r="F9">
         <v>6677000000</v>
-      </c>
-      <c r="F9">
-        <v>6942000000</v>
       </c>
       <c r="G9">
         <v>6677000000</v>
@@ -1608,8 +1719,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AD10">
         <v>2000000</v>
@@ -1619,23 +1730,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>9227000000</v>
+        <v>1086000000</v>
       </c>
       <c r="C11">
-        <v>9308000000</v>
+        <v>1017000000</v>
       </c>
       <c r="D11">
-        <v>9245000000</v>
+        <v>1045000000</v>
       </c>
       <c r="E11">
-        <v>10830000000</v>
+        <v>885000000</v>
       </c>
       <c r="F11">
-        <v>11482000000</v>
+        <v>3748000000</v>
       </c>
       <c r="G11">
         <v>3685000000</v>
@@ -1741,8 +1852,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>86400000000</v>
@@ -1863,8 +1974,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>93455000000</v>
@@ -1985,8 +2096,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1690000000</v>
@@ -2104,8 +2215,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2693000000</v>
@@ -2117,7 +2228,7 @@
         <v>2175000000</v>
       </c>
       <c r="E15">
-        <v>4136000000</v>
+        <v>2379000000</v>
       </c>
       <c r="F15">
         <v>3694000000</v>
@@ -2226,16 +2337,16 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AN16">
         <v>1000000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1213000000</v>
@@ -2356,23 +2467,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2990000000</v>
+        <v>1300000000</v>
       </c>
       <c r="C18">
-        <v>2508000000</v>
+        <v>505000000</v>
       </c>
       <c r="D18">
-        <v>4054000000</v>
+        <v>2154000000</v>
       </c>
       <c r="E18">
-        <v>6827000000</v>
+        <v>2153000000</v>
       </c>
       <c r="F18">
-        <v>6042000000</v>
+        <v>3375000000</v>
       </c>
       <c r="G18">
         <v>3633000000</v>
@@ -2478,8 +2589,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH19">
         <v>26000000</v>
@@ -2504,23 +2615,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2717000000</v>
+        <v>1816000000</v>
       </c>
       <c r="C20">
-        <v>2829000000</v>
+        <v>2010000000</v>
       </c>
       <c r="D20">
-        <v>2148000000</v>
+        <v>1371000000</v>
       </c>
       <c r="E20">
-        <v>4653000000</v>
+        <v>1249000000</v>
       </c>
       <c r="F20">
-        <v>5582000000</v>
+        <v>4136000000</v>
       </c>
       <c r="G20">
         <v>3150000000</v>
@@ -2626,8 +2737,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>8717000000</v>
@@ -2748,8 +2859,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>35673000000</v>
@@ -2761,7 +2872,7 @@
         <v>35398000000</v>
       </c>
       <c r="E22">
-        <v>36682000000</v>
+        <v>31139000000</v>
       </c>
       <c r="F22">
         <v>35659000000</v>
@@ -2870,8 +2981,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>37000000</v>
@@ -2908,8 +3019,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1366000000</v>
@@ -3030,8 +3141,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>11113000000</v>
@@ -3043,7 +3154,7 @@
         <v>11089000000</v>
       </c>
       <c r="E25">
-        <v>14194000000</v>
+        <v>10611000000</v>
       </c>
       <c r="F25">
         <v>13816000000</v>
@@ -3152,8 +3263,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="AA26">
         <v>24000000</v>
@@ -3166,39 +3277,39 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AN27">
         <v>87000000</v>
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="Z28">
         <v>26000000</v>
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>13333000000</v>
+        <v>12004000000</v>
       </c>
       <c r="C29">
-        <v>13151000000</v>
+        <v>11783000000</v>
       </c>
       <c r="D29">
-        <v>14043000000</v>
+        <v>12638000000</v>
       </c>
       <c r="E29">
-        <v>31084000000</v>
+        <v>12630000000</v>
       </c>
       <c r="F29">
-        <v>32892000000</v>
+        <v>29284000000</v>
       </c>
       <c r="G29">
         <v>28436000000</v>
@@ -3304,8 +3415,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>60156000000</v>
@@ -3426,8 +3537,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>68873000000</v>
@@ -3548,8 +3659,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>20895000000</v>
@@ -3670,8 +3781,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>4502000000</v>
@@ -3792,8 +3903,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>123000000</v>
@@ -3914,8 +4025,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AA35">
         <v>193000000</v>
@@ -3961,8 +4072,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>24582000000</v>
@@ -3974,10 +4085,10 @@
         <v>23491000000</v>
       </c>
       <c r="E36">
-        <v>34393000000</v>
+        <v>34795000000</v>
       </c>
       <c r="F36">
-        <v>33851000000</v>
+        <v>34259000000</v>
       </c>
       <c r="G36">
         <v>34500000000</v>
@@ -4083,8 +4194,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>24582000000</v>
@@ -4096,10 +4207,10 @@
         <v>23491000000</v>
       </c>
       <c r="E37">
-        <v>34393000000</v>
+        <v>34795000000</v>
       </c>
       <c r="F37">
-        <v>33851000000</v>
+        <v>34259000000</v>
       </c>
       <c r="G37">
         <v>34500000000</v>
@@ -4205,8 +4316,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>93455000000</v>
@@ -4327,8 +4438,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>994000000</v>
@@ -4449,8 +4560,8 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
         <v>17952000000</v>
@@ -4571,23 +4682,23 @@
       </c>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>37473000000</v>
+        <v>35783000000</v>
       </c>
       <c r="C41">
-        <v>36910000000</v>
+        <v>34907000000</v>
       </c>
       <c r="D41">
-        <v>36546000000</v>
+        <v>34646000000</v>
       </c>
       <c r="E41">
-        <v>41934000000</v>
+        <v>32299000000</v>
       </c>
       <c r="F41">
-        <v>38073000000</v>
+        <v>35604000000</v>
       </c>
       <c r="G41">
         <v>37143000000</v>
@@ -4693,23 +4804,23 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>38663000000</v>
+        <v>36973000000</v>
       </c>
       <c r="C42">
-        <v>38687000000</v>
+        <v>36684000000</v>
       </c>
       <c r="D42">
-        <v>39452000000</v>
+        <v>37552000000</v>
       </c>
       <c r="E42">
-        <v>43509000000</v>
+        <v>33292000000</v>
       </c>
       <c r="F42">
-        <v>41701000000</v>
+        <v>39034000000</v>
       </c>
       <c r="G42">
         <v>39100000000</v>
